--- a/database/gym_database.xlsx
+++ b/database/gym_database.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,25 +478,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nirnaya </t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9876543212</v>
+        <v>9841234567</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>nir@gmail.com</t>
+          <t>john.smith@email.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Yearly</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -511,15 +511,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raj</t>
+          <t>Sarah Johnson</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9876756453</v>
+        <v>9847654321</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>raj@gmail.com</t>
+          <t>sarah.j@email.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -544,15 +544,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pratyush</t>
+          <t>Mike Wilson</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9876565434</v>
+        <v>9845678901</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pratyush@gmail.com</t>
+          <t>mike.w@email.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -577,15 +577,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Manish</t>
+          <t>Emma Davis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9876865733</v>
+        <v>9842345678</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>manish@gmail.com</t>
+          <t>emma.d@email.com</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -610,20 +610,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nischal</t>
+          <t>Nirnaya Thapaliya</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9876542334</v>
+        <v>9876543212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>nischal@gmail.com</t>
+          <t>nir.t@email.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Yearly</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -643,20 +643,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Enyous</t>
+          <t>Alex Kumar</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9876534122</v>
+        <v>9849876543</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>enyous@gmail.com</t>
+          <t>alex.k@email.com</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Yearly</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,28 +676,226 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ram</t>
+          <t>Raj Joshi</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>987654321</v>
+        <v>9876756453</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>raj@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pratyush Lamichhane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9876565434</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>pratyush@gmail.com</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Manish Chaudhary</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9876865733</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>manish@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yearly</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nischal Magar</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>9876542334</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nischal@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Enyous Gurung</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>9876534122</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>enyous@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Yearly</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ram Shrestha</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>9876543212</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>ram@gmail.com</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Quarterly</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Subekshya Timalsina</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>9867563211</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>subekshya.t@email.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
@@ -714,7 +912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,25 +958,361 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nirnaya </t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-01-16 21:31:41</t>
+          <t>2025-01-01 10:30:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Card</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sarah Johnson</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-01-05 11:15:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Cash</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mike Wilson</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-01-10 14:20:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Esewa</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Emma Davis</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-01-15 16:45:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nirnaya Thapaliya</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-01-16 09:30:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alex Kumar</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-01-16 10:15:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Esewa</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Raj Joshi</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-01-16 11:30:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Card</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pratyush Lamichhane</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-01-16 13:45:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Manish Chaudhary</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-01-16 15:20:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nischal Magar</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-01-16 16:30:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Esewa</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Enyous Gurung</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-01-16 17:45:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Card</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ram Shrestha</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-01-18 10:30:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Subekshya Timalsina</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-01-19 02:37:31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pending</t>
         </is>
       </c>
     </row>
@@ -793,7 +1327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,20 +1348,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>member_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>check_in</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>check_out</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>duration</t>
         </is>
@@ -837,27 +1376,888 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nirnaya </t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:31:44</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21:31:46</t>
+          <t>06:00:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sarah Johnson</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>07:15:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1:45:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mike Wilson</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Emma Davis</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Nirnaya Thapaliya</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>19:45:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1:45:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Alex Kumar</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Raj Joshi</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>06:30:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Pratyush Lamichhane</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>07:45:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Manish Chaudhary</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Nischal Magar</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17:45:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Enyous Gurung</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ram Shrestha</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20:45:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>John Smith</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>06:30:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sarah Johnson</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>07:30:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1:45:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mike Wilson</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Emma Davis</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Nirnaya Thapaliya</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Alex Kumar</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20:45:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Raj Joshi</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>06:45:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>08:15:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Pratyush Lamichhane</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>07:45:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>09:30:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1:45:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Manish Chaudhary</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>18:15:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Nischal Magar</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>18:45:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Enyous Gurung</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18:45:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ram Shrestha</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>13</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Subekshya Timalsina</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>02:37:53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>02:38:01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>John Smith</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>02:38:19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>02:38:24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mike Wilson</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>02:42:49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>02:42:51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>0:00:02</t>
         </is>
